--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/Angle/f20_18RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/Angle/f20_18RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\E\Angle\f20_18RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB92297-0DFB-4BA2-BE51-A53182DF63DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCD186E-AE2F-4C17-BE8C-5288ABE8E6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FD59FE9E-71C7-4662-B156-7654FDE65075}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2FDECDDB-A254-4A75-8649-041CB9FE069E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9390B58-463A-4B05-9986-A850EDCDDE40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DCCFD2-75C8-445E-B3E2-B67797385368}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/Angle/f20_18RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/Angle/f20_18RPM/RMSE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\E\Angle\f20_18RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCD186E-AE2F-4C17-BE8C-5288ABE8E6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46D43A1-53F9-447D-B3E2-978D2BC7B47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2FDECDDB-A254-4A75-8649-041CB9FE069E}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{199EF9CE-1863-48B6-AEF6-F077D63FB591}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DCCFD2-75C8-445E-B3E2-B67797385368}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C784321A-2AE5-4F4A-9093-0F2EC71FDEAE}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/Angle/f20_18RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/Angle/f20_18RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\E\Angle\f20_18RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46D43A1-53F9-447D-B3E2-978D2BC7B47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAA6094-D292-4979-AE4B-E4E3B694D5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{199EF9CE-1863-48B6-AEF6-F077D63FB591}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{6237D159-52DF-4114-8305-7AE1E7713AD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C784321A-2AE5-4F4A-9093-0F2EC71FDEAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E31B94-0806-4060-B190-8E69DEC03F53}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
